--- a/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
+++ b/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhpBG1EH488uLuCWmbH0mS3jvrhEQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miJIbRUQp6M5JGTI917xJMNgmW9Vg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="274">
   <si>
     <t>#</t>
   </si>
@@ -92,7 +92,7 @@
     <t>8e290b2ebc51e1634f124c9f1151f88c</t>
   </si>
   <si>
-    <t>Hecho</t>
+    <t xml:space="preserve"> Salida correcta Cadena en MD5 correspondiente </t>
   </si>
   <si>
     <t>NOT VALID</t>
@@ -110,13 +110,22 @@
     <t>"PREMIUM"</t>
   </si>
   <si>
+    <t>Exception: Product Id Format not valid</t>
+  </si>
+  <si>
+    <t>Salida Excepción  El EAN13 recibido no no tiene un fortmato válido</t>
+  </si>
+  <si>
+    <t>CE_NV_3</t>
+  </si>
+  <si>
+    <t>PRODUCT ID NOT CHECK SUM</t>
+  </si>
+  <si>
     <t>Exception: Product Id not valid</t>
   </si>
   <si>
-    <t>CE_NV_3</t>
-  </si>
-  <si>
-    <t>PRODUCT ID NOT CHECK SUM</t>
+    <t xml:space="preserve"> Salida Excepción El EAN13 recibido no es válido</t>
   </si>
   <si>
     <t>CE_NV_4</t>
@@ -137,22 +146,28 @@
     <t>Exception : order type wrong</t>
   </si>
   <si>
+    <t>Salida Excepción El tipo de pedido no es válido</t>
+  </si>
+  <si>
     <t>CE_NV_6</t>
   </si>
   <si>
     <t>ALL PARAMETERS</t>
   </si>
   <si>
+    <t>"C/LISBOA, 4, MADRID, SPAIN"</t>
+  </si>
+  <si>
     <t>ecc7f631f98930aca6e183c6e505dc45</t>
   </si>
   <si>
     <t>CE_NV_7</t>
   </si>
   <si>
-    <t>TWO PARAMETERS</t>
-  </si>
-  <si>
-    <t>"C/LISBOA, , MADRID, "</t>
+    <t>TWO SPACES</t>
+  </si>
+  <si>
+    <t>""C/LISBOA,4, MADRID, SPAIN""</t>
   </si>
   <si>
     <t>ecc7f631f98930aca6e183c6e505dc46</t>
@@ -161,43 +176,16 @@
     <t>CE_NV_8</t>
   </si>
   <si>
-    <t>ONLY ONE PARAMETER</t>
-  </si>
-  <si>
-    <t>"C/LISBOA,, , "</t>
+    <t>ONE SPACES</t>
+  </si>
+  <si>
+    <t>""C/LISBOA,4,MADRID, SPAIN""</t>
   </si>
   <si>
     <t>Invalid address length</t>
   </si>
   <si>
-    <t>CE_NV_9</t>
-  </si>
-  <si>
-    <t>CE_NV_10</t>
-  </si>
-  <si>
-    <t>NO C/ FOR CITY</t>
-  </si>
-  <si>
-    <t>"LISBOA,4, MADRID, SPAIN"</t>
-  </si>
-  <si>
-    <t>CE_NV_11</t>
-  </si>
-  <si>
-    <t>NO 4 COMAS</t>
-  </si>
-  <si>
-    <t>"C/LISBOA 4, MADRID, SPAIN"</t>
-  </si>
-  <si>
-    <t>CE_NV_12</t>
-  </si>
-  <si>
-    <t>NUMER NOT INT</t>
-  </si>
-  <si>
-    <t>"C/LISBOA,CUATRO, MADRID, SPAIN"</t>
+    <t>Salida Excepción La cadena de dirección no es válida.</t>
   </si>
   <si>
     <t>LV</t>
@@ -260,6 +248,10 @@
     <t>Invalid phone_number</t>
   </si>
   <si>
+    <t xml:space="preserve">Salida Excepción El formato del número de teléfono no es válido.
+</t>
+  </si>
+  <si>
     <t>CE_NV_19</t>
   </si>
   <si>
@@ -305,6 +297,10 @@
     <t>Invalid zip_code</t>
   </si>
   <si>
+    <t xml:space="preserve">Salida Excepción El código postal no tiene un valor válido.
+</t>
+  </si>
+  <si>
     <t>CE_NV_24</t>
   </si>
   <si>
@@ -398,22 +394,40 @@
     <t>EXPECTED RESULT</t>
   </si>
   <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>todo bien</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
     <t>NT</t>
   </si>
   <si>
     <t>DUPLICATION</t>
   </si>
   <si>
-    <t>Initial brace duplicated</t>
+    <t>DUPLICATION_Funcion2</t>
+  </si>
+  <si>
+    <t>Dos comandos</t>
   </si>
   <si>
     <t>mytest.json</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"AccessCode":"AHDE3EDDGDS......",
-"DNI":"12345678Z",
-"NotificationMail":[jllopez@inf.uc3m.es]
+    <t xml:space="preserve">{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}
+{ 
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
 }
 </t>
   </si>
@@ -424,13 +438,555 @@
     <t>DELETION</t>
   </si>
   <si>
-    <t>Initial brace deleted</t>
+    <t>DELETION_Funcion2</t>
+  </si>
+  <si>
+    <t>Comando vacio</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>DUPLICATION_Inicio</t>
+  </si>
+  <si>
+    <t>Dos inicio</t>
+  </si>
+  <si>
+    <t>{{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_Inicio</t>
+  </si>
+  <si>
+    <t>Inicio vacio</t>
+  </si>
+  <si>
+    <t>"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>Ye hecho en #3</t>
+  </si>
+  <si>
+    <t>Ye hecho en #4</t>
+  </si>
+  <si>
     <t>MODIFICATION</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>SIMULO ERROR TIPOGRAFICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}
+</t>
+  </si>
+  <si>
+    <t>DUPLICATION_Campo1</t>
+  </si>
+  <si>
+    <t>Dos campo1</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c""OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_Campo1</t>
+  </si>
+  <si>
+    <t>Campo1 vacio</t>
+  </si>
+  <si>
+    <t>{
+,
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_iden1</t>
+  </si>
+  <si>
+    <t>Dos iden1</t>
+  </si>
+  <si>
+    <t>{
+"OrderID""OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_inden1</t>
+  </si>
+  <si>
+    <t>iden1 vacio</t>
+  </si>
+  <si>
+    <t>{
+:"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_comilla</t>
+  </si>
+  <si>
+    <t>Dos comilla</t>
+  </si>
+  <si>
+    <t>{
+""OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_comilla</t>
+  </si>
+  <si>
+    <t>Comilla vacia</t>
+  </si>
+  <si>
+    <t>{
+OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #12</t>
+  </si>
+  <si>
+    <t>Ye hecho en #13</t>
+  </si>
+  <si>
+    <t>{
+[OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_valor campo1</t>
+  </si>
+  <si>
+    <t>Dos valor campo1</t>
+  </si>
+  <si>
+    <t>{
+"OrderIDOrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_valor campo1</t>
+  </si>
+  <si>
+    <t>Valor campo1 vacio</t>
+  </si>
+  <si>
+    <t>{
+"":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #17</t>
+  </si>
+  <si>
+    <t>Ye hecho en #18</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>{
+"hola":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID"":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID:"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #22</t>
+  </si>
+  <si>
+    <t>Ye hecho en #23</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>{
+"OrderID]:"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_igualdad</t>
+  </si>
+  <si>
+    <t>Dos igualdad</t>
+  </si>
+  <si>
+    <t>{
+"OrderID"::"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_igualdad</t>
+  </si>
+  <si>
+    <t>igualdad vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID""8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #27</t>
+  </si>
+  <si>
+    <t>Ye hecho en #28</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>{
+"OrderID"."8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_etiqueta1</t>
+  </si>
+  <si>
+    <t>Dos etiqueta1</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c""8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_etiqueta1</t>
+  </si>
+  <si>
+    <t>etiqueta1 vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":,
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":""8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #34</t>
+  </si>
+  <si>
+    <t>Ye hecho en #35</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":[8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_valor etiqueta1</t>
+  </si>
+  <si>
+    <t>Dos valor etiqueta1</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_valor etiqueta1</t>
+  </si>
+  <si>
+    <t>valor etiqueta1 vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #39</t>
+  </si>
+  <si>
+    <t>Ye hecho en #40</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"hola",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c"",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c,
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #44</t>
+  </si>
+  <si>
+    <t>Ye hecho en #45</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c],
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_separador</t>
+  </si>
+  <si>
+    <t>Dos separador</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",,
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_separador</t>
+  </si>
+  <si>
+    <t>separador vacia</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c"
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #49</t>
+  </si>
+  <si>
+    <t>Ye hecho en #50</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c".
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_Fin</t>
+  </si>
+  <si>
+    <t>Dos Fin</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+}}</t>
+  </si>
+  <si>
+    <t>DELETION_Fin</t>
+  </si>
+  <si>
+    <t>Fin vacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”
+]</t>
+  </si>
+  <si>
+    <t>DUPLICATION_campo2</t>
+  </si>
+  <si>
+    <t>Dos campo2</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”"ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_campo2</t>
+  </si>
+  <si>
+    <t>campo2 vacia</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_inden2</t>
+  </si>
+  <si>
+    <t>Dos inden2</t>
+  </si>
+  <si>
+    <t>DELETION_inden2</t>
+  </si>
+  <si>
+    <t>inden2 vacia</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+""ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #63</t>
+  </si>
+  <si>
+    <t>Ye hecho en #64</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+[ContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_valor campo2</t>
+  </si>
+  <si>
+    <t>Dos valor campo2</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmailContactEmail": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_valor campo2</t>
+  </si>
+  <si>
+    <t>Valor campo2 vacio</t>
+  </si>
+  <si>
+    <t>Ye hecho en #68</t>
+  </si>
+  <si>
+    <t>Ye hecho en #69</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"hola": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail"": “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail: “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #73</t>
+  </si>
+  <si>
+    <t>Ye hecho en #74</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail]: “crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail"::“crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail"“crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail". “crearunjson@inf.uc3m.es”
+}</t>
   </si>
   <si>
     <t>PATH</t>
@@ -449,7 +1005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -513,8 +1069,17 @@
       <color theme="0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +1098,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -540,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -582,17 +1153,41 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -626,7 +1221,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
+  <tableStyles count="6">
     <tableStyle count="3" pivot="0" name="GE3 2023 F1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -634,6 +1229,18 @@
     </tableStyle>
     <tableStyle count="3" pivot="0" name="GE3 2023 F2-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 2">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 3">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 4">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -651,7 +1258,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="16773525" cy="5505450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +1295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N51" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N47" displayName="Table_1" id="1">
   <tableColumns count="14">
     <tableColumn name="#" id="1"/>
     <tableColumn name="I/O" id="2"/>
@@ -699,7 +1335,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G43" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E51:F53" displayName="Table_3" id="3">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E56:F58" displayName="Table_4" id="4">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E61:F84" displayName="Table_5" id="5">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G43" displayName="Table_6" id="6">
   <tableColumns count="7">
     <tableColumn name="#" id="1"/>
     <tableColumn name="PATH" id="2"/>
@@ -929,7 +1595,7 @@
     <col customWidth="1" min="11" max="11" width="14.2"/>
     <col customWidth="1" min="12" max="12" width="13.3"/>
     <col customWidth="1" min="13" max="13" width="38.0"/>
-    <col customWidth="1" min="14" max="14" width="30.4"/>
+    <col customWidth="1" min="14" max="14" width="44.1"/>
     <col customWidth="1" min="15" max="30" width="10.6"/>
   </cols>
   <sheetData>
@@ -1074,11 +1740,11 @@
       <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1098,10 +1764,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>8.421691423225E12</v>
@@ -1119,10 +1785,10 @@
         <v>22</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -1142,7 +1808,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
@@ -1163,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>24</v>
@@ -1186,16 +1852,16 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7">
         <v>8.42169142322E12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -1207,10 +1873,10 @@
         <v>22</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -1230,10 +1896,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7">
         <v>8.42169142322E12</v>
@@ -1241,8 +1907,8 @@
       <c r="I7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
+      <c r="J7" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
@@ -1251,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>24</v>
@@ -1274,10 +1940,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="14">
         <v>8.42169142322E12</v>
@@ -1285,8 +1951,8 @@
       <c r="I8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>44</v>
+      <c r="J8" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>21</v>
@@ -1295,9 +1961,11 @@
         <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -1316,10 +1984,10 @@
         <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>8.42169142322E12</v>
@@ -1328,7 +1996,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
@@ -1337,60 +2005,65 @@
         <v>22</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>25</v>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="14">
         <v>8.42169142322E12</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>9</v>
@@ -1399,10 +2072,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>8.42169142322E12</v>
@@ -1411,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
@@ -1420,262 +2093,279 @@
         <v>22</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>15.0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
+      <c r="E12" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="14">
         <v>8.42169142322E12</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>16.0</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="7">
+        <v>68</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="14">
         <v>8.42169142322E12</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
+        <v>17.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="14">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7">
         <v>8.42169142322E12</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="15" t="s">
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>18.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="H15" s="7">
-        <v>8.42169142322E12</v>
+        <v>8.421691423225E12</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>19.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>16</v>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="14">
-        <v>8.42169142322E12</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8.421691423225E12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="11" t="s">
+        <v>20.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="14">
-        <v>8.42169142322E12</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8.421691423225E12</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -1687,16 +2377,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>8.42169142322E12</v>
+        <v>8.421691423225E12</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>19</v>
@@ -1704,19 +2394,22 @@
       <c r="J18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
+      <c r="K18" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>14</v>
@@ -1725,19 +2418,19 @@
         <v>15</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
-        <v>8.421691423225E12</v>
+        <v>8.42169142322E12</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>19</v>
@@ -1745,19 +2438,22 @@
       <c r="J19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>78</v>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>14</v>
@@ -1766,16 +2462,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>8.421691423225E12</v>
@@ -1786,19 +2482,22 @@
       <c r="J20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>22</v>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -1807,16 +2506,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>8.421691423225E12</v>
@@ -1827,19 +2526,22 @@
       <c r="J21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>22</v>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>14</v>
@@ -1847,17 +2549,17 @@
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
+      <c r="D22" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>8.421691423225E12</v>
@@ -1868,19 +2570,22 @@
       <c r="J22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>22</v>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>14</v>
@@ -1888,20 +2593,20 @@
       <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
-        <v>8.42169142322E12</v>
+        <v>8.421691423225E12</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>19</v>
@@ -1912,16 +2617,19 @@
       <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>22</v>
+      <c r="L23" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>14</v>
@@ -1929,17 +2637,17 @@
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>8.421691423225E12</v>
@@ -1953,16 +2661,19 @@
       <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>93</v>
+      <c r="L24" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>14</v>
@@ -1970,17 +2681,17 @@
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>8.421691423225E12</v>
@@ -1994,17 +2705,19 @@
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>97</v>
+      <c r="L25" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
@@ -2015,14 +2728,14 @@
       <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>25</v>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>8.421691423225E12</v>
@@ -2036,262 +2749,182 @@
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>100</v>
+      <c r="L26" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="7">
-        <v>8.421691423225E12</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>30.0</v>
+      </c>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8.421691423225E12</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>31.0</v>
+      </c>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="10">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8.421691423225E12</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>110</v>
+        <v>32.0</v>
       </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="7">
-        <v>8.421691423225E12</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" s="4"/>
+        <v>33.0</v>
+      </c>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="10">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="10">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
-        <v>33.0</v>
-      </c>
-      <c r="N34" s="7"/>
+        <v>37.0</v>
+      </c>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="10">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="N35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="N36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="10">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="N37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="N38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="10">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="N39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
-        <v>39.0</v>
-      </c>
+        <v>43.0</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="10">
-        <v>40.0</v>
-      </c>
+        <v>44.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
-        <v>41.0</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="10">
-        <v>42.0</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>43.0</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2307,23 +2940,13 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="10">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2333,23 +2956,13 @@
       <c r="N45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2374,70 +2987,10 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -3391,10 +3944,6 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3417,14 +3966,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.6"/>
-    <col customWidth="1" min="3" max="3" width="26.6"/>
-    <col customWidth="1" min="4" max="4" width="44.1"/>
-    <col customWidth="1" min="5" max="5" width="22.3"/>
-    <col customWidth="1" min="6" max="6" width="62.3"/>
+    <col customWidth="1" min="3" max="3" width="25.6"/>
+    <col customWidth="1" min="4" max="4" width="40.9"/>
+    <col customWidth="1" min="5" max="5" width="22.1"/>
+    <col customWidth="1" min="6" max="6" width="25.4"/>
     <col customWidth="1" min="7" max="7" width="9.3"/>
     <col customWidth="1" min="8" max="8" width="36.7"/>
-    <col customWidth="1" min="9" max="10" width="33.7"/>
-    <col customWidth="1" min="11" max="28" width="10.6"/>
+    <col customWidth="1" min="9" max="9" width="33.7"/>
+    <col customWidth="1" min="10" max="10" width="11.6"/>
+    <col customWidth="1" min="11" max="27" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
@@ -3432,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>5</v>
@@ -3447,655 +3997,2399 @@
         <v>6</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="25">
         <v>1.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B3" s="26">
         <v>1.0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="25">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="26">
+        <v>16.0</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="26">
+        <v>16.0</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="26">
+        <v>34.0</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="26">
+        <v>34.0</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="26">
+        <v>34.0</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="26">
+        <v>17.0</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="26">
+        <v>17.0</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="25">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="26">
+        <v>35.0</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="26">
+        <v>35.0</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="25">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="26">
+        <v>35.0</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="26">
+        <v>18.0</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="26">
+        <v>18.0</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="26">
+        <v>36.0</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="25">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="26">
+        <v>36.0</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="26">
+        <v>36.0</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="25">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="25">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="26">
+        <v>19.0</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="26">
+        <v>19.0</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="25">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="26">
+        <v>19.0</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="25">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="25">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="25">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="25">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="25">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="26">
+        <v>37.0</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="25">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="26">
+        <v>37.0</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="25">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="26">
+        <v>37.0</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="25">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="26">
+        <v>21.0</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="25">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="26">
+        <v>21.0</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="25">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="26">
+        <v>38.0</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="27">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="28">
+        <v>38.0</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="27">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="28">
+        <v>38.0</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="27">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="27">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="27">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="28">
+        <v>39.0</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="27">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="28">
+        <v>39.0</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="27">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="28">
+        <v>39.0</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="27">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="31">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="31">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="31">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="31">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="31">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="31">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="31">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="31">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="32"/>
+      <c r="H60" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="31">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" s="32"/>
+      <c r="H61" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="31">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="32"/>
+      <c r="H62" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="31">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="33">
+        <v>12.0</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="31">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="33">
+        <v>12.0</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D64" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="32"/>
+      <c r="H64" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="33">
+        <v>23.0</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E65" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="32"/>
+      <c r="H65" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="31">
+        <v>64.0</v>
+      </c>
+      <c r="B66" s="33">
+        <v>23.0</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="32"/>
+      <c r="H66" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="31">
+        <v>65.0</v>
+      </c>
+      <c r="B67" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="31">
+        <v>66.0</v>
+      </c>
+      <c r="B68" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="31">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="32"/>
+      <c r="H69" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="31">
+        <v>68.0</v>
+      </c>
+      <c r="B70" s="33">
+        <v>24.0</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G70" s="32"/>
+      <c r="H70" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="31">
+        <v>69.0</v>
+      </c>
+      <c r="B71" s="33">
+        <v>24.0</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="32"/>
+      <c r="H71" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="31">
+        <v>70.0</v>
+      </c>
+      <c r="B72" s="33">
+        <v>41.0</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="31">
+        <v>71.0</v>
+      </c>
+      <c r="B73" s="33">
+        <v>41.0</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="25"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="31">
+        <v>72.0</v>
+      </c>
+      <c r="B74" s="33">
+        <v>41.0</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="32"/>
+      <c r="H74" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="31">
+        <v>73.0</v>
+      </c>
+      <c r="B75" s="33">
+        <v>25.0</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D75" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="32"/>
+      <c r="H75" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="31">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="33">
+        <v>25.0</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
+      <c r="E76" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G76" s="32"/>
+      <c r="H76" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="31">
+        <v>75.0</v>
+      </c>
+      <c r="B77" s="33">
+        <v>42.0</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="31">
+        <v>76.0</v>
+      </c>
+      <c r="B78" s="33">
+        <v>42.0</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="31">
+        <v>77.0</v>
+      </c>
+      <c r="B79" s="33">
+        <v>42.0</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="32"/>
+      <c r="H79" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="31">
+        <v>78.0</v>
+      </c>
+      <c r="B80" s="33">
+        <v>13.0</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="31">
+        <v>79.0</v>
+      </c>
+      <c r="B81" s="33">
+        <v>13.0</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="31">
+        <v>80.0</v>
+      </c>
+      <c r="B82" s="33">
+        <v>26.0</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="31">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="33">
+        <v>26.0</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="31">
+        <v>82.0</v>
+      </c>
+      <c r="B84" s="33">
+        <v>26.0</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="31">
+        <v>83.0</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="31">
+        <v>84.0</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="31">
+        <v>85.0</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="31">
+        <v>86.0</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="31">
+        <v>87.0</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="31">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="31">
+        <v>89.0</v>
+      </c>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="31">
+        <v>90.0</v>
+      </c>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="31">
+        <v>91.0</v>
+      </c>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="31">
+        <v>92.0</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="31">
+        <v>93.0</v>
+      </c>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="31">
+        <v>94.0</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="31">
+        <v>95.0</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="31">
+        <v>96.0</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="31">
+        <v>97.0</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="31">
+        <v>98.0</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="31">
+        <v>99.0</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="31">
+        <v>100.0</v>
+      </c>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="31">
+        <v>101.0</v>
+      </c>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="31">
+        <v>102.0</v>
+      </c>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="31">
+        <v>103.0</v>
+      </c>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="31">
+        <v>104.0</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="4">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="4">
+        <v>106.0</v>
+      </c>
+    </row>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
@@ -4993,8 +7287,11 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5023,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -5032,10 +7329,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -5046,11 +7343,11 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
+++ b/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="358">
   <si>
     <t>#</t>
   </si>
@@ -191,52 +191,52 @@
     <t>LV</t>
   </si>
   <si>
+    <t>CE_NV_9</t>
+  </si>
+  <si>
+    <t>20 PARAMETERS</t>
+  </si>
+  <si>
+    <t>"C/LIS,4, MADR, SPAIN"</t>
+  </si>
+  <si>
+    <t>9a6397e11aed67e554fcf245af4eb43c</t>
+  </si>
+  <si>
+    <t>CE_NV_10</t>
+  </si>
+  <si>
+    <t>19 CHARACTERS</t>
+  </si>
+  <si>
+    <t>"C/LIS,4, MADR, SPAI"</t>
+  </si>
+  <si>
+    <t>CE_NV_11</t>
+  </si>
+  <si>
+    <t>99 CHARACTERS</t>
+  </si>
+  <si>
+    <t>"C/LISBOA LA MEJOR CIUDAD DEL MUND0,12345678999, MADRID DEMASIADA CONTAMINACION, SPAIN PERO SIN LA S"</t>
+  </si>
+  <si>
+    <t>3eb1a4fb8c37ffc300fae92c0714e48c</t>
+  </si>
+  <si>
+    <t>CE_NV_12</t>
+  </si>
+  <si>
+    <t>100 CHARACTERS</t>
+  </si>
+  <si>
+    <t>"C/LISBOA LA MEJOR CIUDAD DEL MUND0,123456789999, MADRID DEMASIADA CONTAMINACION, SPAIN PERO SIN LA SP"</t>
+  </si>
+  <si>
     <t>CE_NV_13</t>
   </si>
   <si>
-    <t>20 PARAMETERS</t>
-  </si>
-  <si>
-    <t>"C/LIS,4, MADR, SPAIN"</t>
-  </si>
-  <si>
-    <t>9a6397e11aed67e554fcf245af4eb43c</t>
-  </si>
-  <si>
     <t>CE_NV_14</t>
-  </si>
-  <si>
-    <t>19 CHARACTERS</t>
-  </si>
-  <si>
-    <t>"C/LIS,4, MADR, SPAI"</t>
-  </si>
-  <si>
-    <t>CE_NV_15</t>
-  </si>
-  <si>
-    <t>99 CHARACTERS</t>
-  </si>
-  <si>
-    <t>"C/LISBOA LA MEJOR CIUDAD DEL MUND0,12345678999, MADRID DEMASIADA CONTAMINACION, SPAIN PERO SIN LA S"</t>
-  </si>
-  <si>
-    <t>3eb1a4fb8c37ffc300fae92c0714e48c</t>
-  </si>
-  <si>
-    <t>CE_NV_16</t>
-  </si>
-  <si>
-    <t>100 CHARACTERS</t>
-  </si>
-  <si>
-    <t>"C/LISBOA LA MEJOR CIUDAD DEL MUND0,123456789999, MADRID DEMASIADA CONTAMINACION, SPAIN PERO SIN LA SP"</t>
-  </si>
-  <si>
-    <t>CE_NV_17</t>
-  </si>
-  <si>
-    <t>CE_NV_18</t>
   </si>
   <si>
     <t>NOT INT</t>
@@ -252,40 +252,40 @@
 </t>
   </si>
   <si>
+    <t>CE_NV_15</t>
+  </si>
+  <si>
+    <t>8 DIGIT</t>
+  </si>
+  <si>
+    <t>"+3412345678"</t>
+  </si>
+  <si>
+    <t>CE_NV_16</t>
+  </si>
+  <si>
+    <t>10 DIGIT</t>
+  </si>
+  <si>
+    <t>"+341234567890"</t>
+  </si>
+  <si>
+    <t>CE_NV_17</t>
+  </si>
+  <si>
+    <t>NOT + START</t>
+  </si>
+  <si>
+    <t>"+39123456789"</t>
+  </si>
+  <si>
+    <t>CE_NV_18</t>
+  </si>
+  <si>
+    <t>first 2 digit between 01 - 52</t>
+  </si>
+  <si>
     <t>CE_NV_19</t>
-  </si>
-  <si>
-    <t>8 DIGIT</t>
-  </si>
-  <si>
-    <t>"+3412345678"</t>
-  </si>
-  <si>
-    <t>CE_NV_20</t>
-  </si>
-  <si>
-    <t>10 DIGIT</t>
-  </si>
-  <si>
-    <t>"+341234567890"</t>
-  </si>
-  <si>
-    <t>CE_NV_21</t>
-  </si>
-  <si>
-    <t>NOT + START</t>
-  </si>
-  <si>
-    <t>"+39123456789"</t>
-  </si>
-  <si>
-    <t>CE_NV_22</t>
-  </si>
-  <si>
-    <t>first 2 digit between 01 - 52</t>
-  </si>
-  <si>
-    <t>CE_NV_23</t>
   </si>
   <si>
     <t>ZIP_CODE 6 DIGIT</t>
@@ -301,55 +301,55 @@
 </t>
   </si>
   <si>
+    <t>CE_NV_20</t>
+  </si>
+  <si>
+    <t>ZIP_CODE 4 DIGIT</t>
+  </si>
+  <si>
+    <t>"2800"</t>
+  </si>
+  <si>
+    <t>CE_NV_21</t>
+  </si>
+  <si>
+    <t>ZIP_CODE NOT NUMBER</t>
+  </si>
+  <si>
+    <t>"28a05"</t>
+  </si>
+  <si>
+    <t>CE_NV_22</t>
+  </si>
+  <si>
+    <t>first 2 digit less than 01</t>
+  </si>
+  <si>
+    <t>"00005"</t>
+  </si>
+  <si>
+    <t>CE_NV_23</t>
+  </si>
+  <si>
+    <t>first 2 digit more than 52</t>
+  </si>
+  <si>
+    <t>"99005"</t>
+  </si>
+  <si>
     <t>CE_NV_24</t>
   </si>
   <si>
-    <t>ZIP_CODE 4 DIGIT</t>
-  </si>
-  <si>
-    <t>"2800"</t>
+    <t>first 2 digit 01</t>
+  </si>
+  <si>
+    <t>"01005"</t>
+  </si>
+  <si>
+    <t>c6f1b7087cba778077d8011d698c2ab0</t>
   </si>
   <si>
     <t>CE_NV_25</t>
-  </si>
-  <si>
-    <t>ZIP_CODE NOT NUMBER</t>
-  </si>
-  <si>
-    <t>"28a05"</t>
-  </si>
-  <si>
-    <t>CE_NV_26</t>
-  </si>
-  <si>
-    <t>first 2 digit less than 01</t>
-  </si>
-  <si>
-    <t>"00005"</t>
-  </si>
-  <si>
-    <t>CE_NV_27</t>
-  </si>
-  <si>
-    <t>first 2 digit more than 52</t>
-  </si>
-  <si>
-    <t>"99005"</t>
-  </si>
-  <si>
-    <t>CE_NV_28</t>
-  </si>
-  <si>
-    <t>first 2 digit 01</t>
-  </si>
-  <si>
-    <t>"01005"</t>
-  </si>
-  <si>
-    <t>c6f1b7087cba778077d8011d698c2ab0</t>
-  </si>
-  <si>
-    <t>CE_NV_29</t>
   </si>
   <si>
     <t>first 2 digit 52</t>
@@ -852,6 +852,12 @@
 </t>
   </si>
   <si>
+    <t>Ye hecho en #54</t>
+  </si>
+  <si>
+    <t>Ye hecho en #55</t>
+  </si>
+  <si>
     <t>{
 "OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
 "ContactEmail": “crearunjson@inf.uc3m.es”
@@ -983,22 +989,337 @@
 }</t>
   </si>
   <si>
+    <t>Ye hecho en #78</t>
+  </si>
+  <si>
+    <t>Ye hecho en #79</t>
+  </si>
+  <si>
     <t>{
 "OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
 "ContactEmail". “crearunjson@inf.uc3m.es”
 }</t>
   </si>
   <si>
+    <t>DUPLICATION_etiqueta2</t>
+  </si>
+  <si>
+    <t>Dos etiqueta2</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”“crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_etiqueta2</t>
+  </si>
+  <si>
+    <t>etiqueta2 vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": 
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": ““crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>comilla vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #85</t>
+  </si>
+  <si>
+    <t>Ye hecho en #86</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": .crearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_nombre correo</t>
+  </si>
+  <si>
+    <t>Dos nombre correo</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjsoncrearunjson@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_nombre correo</t>
+  </si>
+  <si>
+    <t>nombre correo vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #90</t>
+  </si>
+  <si>
+    <t>Ye hecho en #91</t>
+  </si>
+  <si>
+    <t>---------!!!!!!</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “---------@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_arroba</t>
+  </si>
+  <si>
+    <t>Dos arroba</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@@inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_arroba</t>
+  </si>
+  <si>
+    <t>arroba vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjsoninf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #95</t>
+  </si>
+  <si>
+    <t>Ye hecho en #96</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson.inf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_dominio</t>
+  </si>
+  <si>
+    <t>Dos dominio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@infinf.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_dominio</t>
+  </si>
+  <si>
+    <t>dominio vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #100</t>
+  </si>
+  <si>
+    <t>Ye hecho en #101</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@AAAAA.uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_punto</t>
+  </si>
+  <si>
+    <t>Dos punto</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf..uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_punto</t>
+  </si>
+  <si>
+    <t>punto vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@infuc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #105</t>
+  </si>
+  <si>
+    <t>Ye hecho en #106</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf@uc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DUPLICATION_extension</t>
+  </si>
+  <si>
+    <t>Dos extension</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.esuc3m.es”
+}</t>
+  </si>
+  <si>
+    <t>DELETION_extension</t>
+  </si>
+  <si>
+    <t>extension vacio</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.”
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #110</t>
+  </si>
+  <si>
+    <t>Ye hecho en #111</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.AAAAA”
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es”"
+}</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es
+}</t>
+  </si>
+  <si>
+    <t>Ye hecho en #115</t>
+  </si>
+  <si>
+    <t>Ye hecho en #116</t>
+  </si>
+  <si>
+    <t>{
+"OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+"ContactEmail": “crearunjson@inf.uc3m.es.
+}</t>
+  </si>
+  <si>
     <t>PATH</t>
   </si>
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>1_3_5_6_8_10</t>
-  </si>
-  <si>
-    <t>Path considering that the input is not found in the file</t>
+    <t>1_2_3_5_7_9_10_11_12_15</t>
+  </si>
+  <si>
+    <t>sp_01</t>
+  </si>
+  <si>
+    <t>La funcion devuelve True y se envia el fichero</t>
+  </si>
+  <si>
+    <t>1_2_3_5_7_9_10_14_15</t>
+  </si>
+  <si>
+    <t>sp_02</t>
+  </si>
+  <si>
+    <t>El código de seguimiento no estaba registrado.</t>
+  </si>
+  <si>
+    <t>1_2_3_5_13_15</t>
+  </si>
+  <si>
+    <t>No se encuentra el fichero JSON</t>
+  </si>
+  <si>
+    <t>1_2_3_5_8_13_15</t>
+  </si>
+  <si>
+    <t>El fichero no tiene extensión JSON</t>
+  </si>
+  <si>
+    <t>1_2_3_6_15</t>
+  </si>
+  <si>
+    <t>Código SHA-256 incorrecto (formato no corresponde)</t>
+  </si>
+  <si>
+    <t>1_2_4_15</t>
+  </si>
+  <si>
+    <t>Cadena de estrada no procesable (no str..)</t>
+  </si>
+  <si>
+    <t>1_2_3_5_7_9_10_11_13_15</t>
+  </si>
+  <si>
+    <t>Fecha incorrecta</t>
+  </si>
+  <si>
+    <t>V(G)= E-V</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1400,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1417,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1167,27 +1494,27 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1269,7 +1596,7 @@
     <xdr:ext cx="16773525" cy="5505450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1291,7 +1618,64 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6410325" cy="9877425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,7 +1739,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E61:F84" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E61:F121" displayName="Table_5" id="5">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2013,7 +2397,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>14</v>
@@ -2057,7 +2441,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -2101,7 +2485,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>14</v>
@@ -2145,7 +2529,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
@@ -2189,7 +2573,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -2233,7 +2617,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -2277,7 +2661,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -2321,7 +2705,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -2365,7 +2749,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -2409,7 +2793,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>14</v>
@@ -2453,7 +2837,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>14</v>
@@ -2497,7 +2881,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -2541,7 +2925,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>14</v>
@@ -2585,7 +2969,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>14</v>
@@ -2629,7 +3013,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>14</v>
@@ -2673,7 +3057,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>14</v>
@@ -2717,7 +3101,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
@@ -2761,85 +3145,85 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="10">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="N30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="10">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="10">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="N34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="10">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="N35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="N36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="10">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="N37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="N38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="10">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="N39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2857,7 +3241,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="10">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>113</v>
@@ -2883,7 +3267,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>113</v>
@@ -4049,2360 +4433,2920 @@
       <c r="J2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>1.0</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <v>1.0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="26" t="s">
         <v>133</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>2.0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>1.0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="26">
         <v>3.0</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>2.0</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>4.0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>2.0</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="26">
         <v>5.0</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>7.0</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <v>6.0</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>7.0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="25">
+      <c r="A9" s="26">
         <v>7.0</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>7.0</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>8.0</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>3.0</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="25">
+      <c r="A11" s="26">
         <v>9.0</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>3.0</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>10.0</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="27">
         <v>8.0</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="25">
+      <c r="A13" s="26">
         <v>11.0</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="27">
         <v>8.0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="25">
+      <c r="A14" s="26">
         <v>12.0</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="27">
         <v>16.0</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="25">
+      <c r="A15" s="26">
         <v>13.0</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="27">
         <v>16.0</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="25">
+      <c r="A16" s="26">
         <v>14.0</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="27">
         <v>34.0</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>15.0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>34.0</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="25">
+      <c r="A18" s="26">
         <v>16.0</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="27">
         <v>34.0</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="25">
+      <c r="A19" s="26">
         <v>17.0</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="27">
         <v>17.0</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="25">
+      <c r="A20" s="26">
         <v>18.0</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="27">
         <v>17.0</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="25">
+      <c r="A21" s="26">
         <v>19.0</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="27">
         <v>35.0</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="25">
+      <c r="A22" s="26">
         <v>20.0</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="27">
         <v>35.0</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="25">
+      <c r="A23" s="26">
         <v>21.0</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="27">
         <v>35.0</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="25">
+      <c r="A24" s="26">
         <v>22.0</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="27">
         <v>18.0</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="25">
+      <c r="A25" s="26">
         <v>23.0</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <v>18.0</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="25">
+      <c r="A26" s="26">
         <v>24.0</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="27">
         <v>36.0</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>25.0</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="27">
         <v>36.0</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="25">
+      <c r="A28" s="26">
         <v>26.0</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="27">
         <v>36.0</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="25">
+      <c r="A29" s="26">
         <v>27.0</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="27">
         <v>9.0</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="25">
+      <c r="A30" s="26">
         <v>28.0</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="27">
         <v>9.0</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="25">
+      <c r="A31" s="26">
         <v>29.0</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="27">
         <v>19.0</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="25">
+      <c r="A32" s="26">
         <v>30.0</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="27">
         <v>19.0</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="25">
+      <c r="A33" s="26">
         <v>31.0</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="27">
         <v>19.0</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="25">
+      <c r="A34" s="26">
         <v>32.0</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="27">
         <v>10.0</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="25"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="25">
+      <c r="A35" s="26">
         <v>33.0</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="27">
         <v>10.0</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="25">
+      <c r="A36" s="26">
         <v>34.0</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="27">
         <v>20.0</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="I36" s="25"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="25">
+      <c r="A37" s="26">
         <v>35.0</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="27">
         <v>20.0</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="25">
+      <c r="A38" s="26">
         <v>36.0</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="27">
         <v>37.0</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="25">
+      <c r="A39" s="26">
         <v>37.0</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="27">
         <v>37.0</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="25">
+      <c r="A40" s="26">
         <v>38.0</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="27">
         <v>37.0</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="25">
+      <c r="A41" s="26">
         <v>39.0</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="27">
         <v>21.0</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="I41" s="25"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25">
+      <c r="A42" s="26">
         <v>40.0</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="27">
         <v>21.0</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I42" s="25"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="25">
+      <c r="A43" s="26">
         <v>41.0</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="27">
         <v>38.0</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <v>42.0</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>38.0</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <v>43.0</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>38.0</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30" t="s">
+      <c r="G45" s="24"/>
+      <c r="H45" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <v>44.0</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <v>22.0</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <v>45.0</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="27">
         <v>22.0</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <v>46.0</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="27">
         <v>39.0</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <v>47.0</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>39.0</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27">
+      <c r="A50" s="26">
         <v>48.0</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="27">
         <v>39.0</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30" t="s">
+      <c r="G50" s="24"/>
+      <c r="H50" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27">
+      <c r="A51" s="26">
         <v>49.0</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="23">
         <v>4.0</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="29"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="27">
+      <c r="A52" s="26">
         <v>50.0</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="23">
         <v>4.0</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="29"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="31">
+      <c r="A53" s="26">
         <v>51.0</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="23">
         <v>11.0</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="31">
+      <c r="A54" s="26">
         <v>52.0</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="23">
         <v>11.0</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="31">
+      <c r="A55" s="26">
         <v>53.0</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="23">
         <v>11.0</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="32"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="31">
+      <c r="A56" s="26">
         <v>54.0</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="23">
         <v>6.0</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="32"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="31">
+      <c r="A57" s="26">
         <v>55.0</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="23">
         <v>6.0</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="G57" s="32"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="31">
+      <c r="A58" s="26">
         <v>56.0</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="23">
         <v>15.0</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
+      <c r="E58" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="31">
+      <c r="A59" s="26">
         <v>57.0</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="23">
         <v>15.0</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
+      <c r="E59" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
+      <c r="A60" s="26">
         <v>58.0</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="23">
         <v>15.0</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="32"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
+        <v>240</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="31">
+      <c r="A61" s="26">
         <v>59.0</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="23">
         <v>5.0</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="32"/>
+      <c r="E61" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="24"/>
       <c r="H61" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
+        <v>243</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="31">
+      <c r="A62" s="26">
         <v>60.0</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="23">
         <v>5.0</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="G62" s="32"/>
+      <c r="E62" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62" s="24"/>
       <c r="H62" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
+        <v>246</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="26">
         <v>61.0</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="23">
         <v>12.0</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" s="32"/>
+      <c r="E63" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" s="24"/>
       <c r="H63" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31">
+      <c r="A64" s="26">
         <v>62.0</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="23">
         <v>12.0</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="32"/>
+      <c r="E64" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" s="24"/>
       <c r="H64" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31">
+      <c r="A65" s="26">
         <v>63.0</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="23">
         <v>23.0</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G65" s="32"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
+        <v>251</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31">
+      <c r="A66" s="26">
         <v>64.0</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="23">
         <v>23.0</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="32"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+        <v>252</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31">
+      <c r="A67" s="26">
         <v>65.0</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="23">
         <v>40.0</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
+      <c r="E67" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31">
+      <c r="A68" s="26">
         <v>66.0</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="23">
         <v>40.0</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="E68" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="31">
+      <c r="A69" s="26">
         <v>67.0</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="23">
         <v>40.0</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G69" s="32"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+        <v>255</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31">
+      <c r="A70" s="26">
         <v>68.0</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="23">
         <v>24.0</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G70" s="32"/>
+      <c r="E70" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G70" s="24"/>
       <c r="H70" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
+        <v>258</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31">
+      <c r="A71" s="26">
         <v>69.0</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="23">
         <v>24.0</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="G71" s="32"/>
+      <c r="E71" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G71" s="24"/>
       <c r="H71" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31">
+      <c r="A72" s="26">
         <v>70.0</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="23">
         <v>41.0</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
+      <c r="E72" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31">
+      <c r="A73" s="26">
         <v>71.0</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="23">
         <v>41.0</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
+      <c r="E73" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31">
+      <c r="A74" s="26">
         <v>72.0</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="23">
         <v>41.0</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="32"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
+        <v>263</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31">
+      <c r="A75" s="26">
         <v>73.0</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="23">
         <v>25.0</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="32"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+        <v>264</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31">
+      <c r="A76" s="26">
         <v>74.0</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="23">
         <v>25.0</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G76" s="32"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
+        <v>265</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31">
+      <c r="A77" s="26">
         <v>75.0</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="23">
         <v>42.0</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="E77" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="26"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31">
+      <c r="A78" s="26">
         <v>76.0</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="23">
         <v>42.0</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="E78" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31">
+      <c r="A79" s="26">
         <v>77.0</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="23">
         <v>42.0</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G79" s="32"/>
+      <c r="G79" s="24"/>
       <c r="H79" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
+        <v>268</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31">
+      <c r="A80" s="26">
         <v>78.0</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="23">
         <v>13.0</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="G80" s="25"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
+        <v>269</v>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31">
+      <c r="A81" s="26">
         <v>79.0</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="23">
         <v>13.0</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="G81" s="25"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
+        <v>270</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31">
+      <c r="A82" s="26">
         <v>80.0</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="23">
         <v>26.0</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
+      <c r="E82" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31">
+      <c r="A83" s="26">
         <v>81.0</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="23">
         <v>26.0</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
+      <c r="E83" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31">
+      <c r="A84" s="26">
         <v>82.0</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="23">
         <v>26.0</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G84" s="25"/>
+      <c r="G84" s="26"/>
       <c r="H84" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
+        <v>273</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31">
+      <c r="A85" s="26">
         <v>83.0</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
+      <c r="B85" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31">
+      <c r="A86" s="26">
         <v>84.0</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
+      <c r="B86" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" s="24"/>
+      <c r="H86" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31">
+      <c r="A87" s="26">
         <v>85.0</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
+      <c r="B87" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31">
+      <c r="A88" s="26">
         <v>86.0</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
+      <c r="B88" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I88" s="24"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31">
+      <c r="A89" s="26">
         <v>87.0</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
+      <c r="B89" s="23">
+        <v>43.0</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31">
+      <c r="A90" s="26">
         <v>88.0</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
+      <c r="B90" s="23">
+        <v>43.0</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31">
+      <c r="A91" s="26">
         <v>89.0</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
+      <c r="B91" s="23">
+        <v>43.0</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="I91" s="24"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31">
+      <c r="A92" s="26">
         <v>90.0</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
+      <c r="B92" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31">
+      <c r="A93" s="26">
         <v>91.0</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
+      <c r="B93" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="I93" s="24"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31">
+      <c r="A94" s="26">
         <v>92.0</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
+      <c r="B94" s="23">
+        <v>44.0</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31">
+      <c r="A95" s="26">
         <v>93.0</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
+      <c r="B95" s="23">
+        <v>44.0</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F95" s="26"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="31">
+      <c r="A96" s="26">
         <v>94.0</v>
       </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
+      <c r="B96" s="23">
+        <v>44.0</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I96" s="24"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="31">
+      <c r="A97" s="26">
         <v>95.0</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
+      <c r="B97" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="I97" s="24"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="31">
+      <c r="A98" s="26">
         <v>96.0</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
+      <c r="B98" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="I98" s="24"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="31">
+      <c r="A99" s="26">
         <v>97.0</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
+      <c r="B99" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="30"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="31">
+      <c r="A100" s="26">
         <v>98.0</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
+      <c r="B100" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" s="30"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="31">
+      <c r="A101" s="26">
         <v>99.0</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
+      <c r="B101" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" s="24"/>
+      <c r="H101" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="31">
+      <c r="A102" s="26">
         <v>100.0</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
+      <c r="B102" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I102" s="24"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="31">
+      <c r="A103" s="26">
         <v>101.0</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
+      <c r="B103" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G103" s="24"/>
+      <c r="H103" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="I103" s="24"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="31">
+      <c r="A104" s="26">
         <v>102.0</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
+      <c r="B104" s="23">
+        <v>46.0</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F104" s="30"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="29"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="31">
+      <c r="A105" s="26">
         <v>103.0</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
+      <c r="B105" s="23">
+        <v>46.0</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F105" s="30"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="31">
+      <c r="A106" s="26">
         <v>104.0</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
+      <c r="B106" s="23">
+        <v>46.0</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" s="24"/>
+      <c r="H106" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4">
+      <c r="A107" s="26">
         <v>105.0</v>
       </c>
+      <c r="B107" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G107" s="24"/>
+      <c r="H107" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4">
+      <c r="A108" s="26">
         <v>106.0</v>
       </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
+      <c r="B108" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G108" s="24"/>
+      <c r="H108" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I108" s="24"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="26">
+        <v>107.0</v>
+      </c>
+      <c r="B109" s="23">
+        <v>47.0</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="26">
+        <v>108.0</v>
+      </c>
+      <c r="B110" s="23">
+        <v>47.0</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F110" s="30"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="26">
+        <v>109.0</v>
+      </c>
+      <c r="B111" s="23">
+        <v>47.0</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="24"/>
+      <c r="H111" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="I111" s="24"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="26">
+        <v>110.0</v>
+      </c>
+      <c r="B112" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="24"/>
+      <c r="H112" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="I112" s="24"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="26">
+        <v>111.0</v>
+      </c>
+      <c r="B113" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G113" s="24"/>
+      <c r="H113" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="I113" s="24"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="26">
+        <v>112.0</v>
+      </c>
+      <c r="B114" s="23">
+        <v>48.0</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F114" s="30"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="26">
+        <v>113.0</v>
+      </c>
+      <c r="B115" s="23">
+        <v>48.0</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F115" s="30"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="26">
+        <v>114.0</v>
+      </c>
+      <c r="B116" s="23">
+        <v>48.0</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G116" s="24"/>
+      <c r="H116" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="I116" s="24"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="26">
+        <v>115.0</v>
+      </c>
+      <c r="B117" s="23">
+        <v>33.0</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="I117" s="24"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="26">
+        <v>116.0</v>
+      </c>
+      <c r="B118" s="23">
+        <v>33.0</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G118" s="24"/>
+      <c r="H118" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="I118" s="24"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="26">
+        <v>117.0</v>
+      </c>
+      <c r="B119" s="23">
+        <v>49.0</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F119" s="30"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="26">
+        <v>118.0</v>
+      </c>
+      <c r="B120" s="23">
+        <v>49.0</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="F120" s="30"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="26">
+        <v>119.0</v>
+      </c>
+      <c r="B121" s="23">
+        <v>49.0</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" s="24"/>
+      <c r="H121" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I121" s="24"/>
+    </row>
     <row r="122" ht="15.75" customHeight="1"/>
     <row r="123" ht="15.75" customHeight="1"/>
     <row r="124" ht="15.75" customHeight="1"/>
@@ -7307,7 +8251,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.6"/>
-    <col customWidth="1" min="2" max="2" width="15.6"/>
+    <col customWidth="1" min="2" max="2" width="21.0"/>
     <col customWidth="1" min="3" max="3" width="22.3"/>
     <col customWidth="1" min="4" max="4" width="62.3"/>
     <col customWidth="1" min="5" max="5" width="9.3"/>
@@ -7320,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -7329,7 +8273,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>123</v>
@@ -7342,12 +8286,14 @@
       <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>273</v>
+      <c r="B2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7357,9 +8303,15 @@
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -7368,9 +8320,13 @@
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -7379,9 +8335,13 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -7390,27 +8350,42 @@
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -7435,12 +8410,15 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>

--- a/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
+++ b/GE3_TestCasesTemplate_2023_v1.0 G16.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miJIbRUQp6M5JGTI917xJMNgmW9Vg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhtMTV0TggQ4BVXRURDJaT7bY/pyA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="366">
   <si>
     <t>#</t>
   </si>
@@ -404,6 +404,9 @@
 "OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
 "ContactEmail": “crearunjson@inf.uc3m.es”
 }</t>
+  </si>
+  <si>
+    <t>&lt;valid hash for these values&gt;</t>
   </si>
   <si>
     <t>NT</t>
@@ -432,7 +435,7 @@
 </t>
   </si>
   <si>
-    <t>&lt;valid hash for these values&gt;</t>
+    <t>JSON Decode Error - Wrong JSON Format</t>
   </si>
   <si>
     <t>DELETION</t>
@@ -574,7 +577,7 @@
   </si>
   <si>
     <t>{
-[OrderID":"8e290b2ebc51e1634f124c9f1151f88c",
+[OrderID":"8e290b2ebc51e1634fP24c9f1151f88c",
 "ContactEmail": “crearunjson@inf.uc3m.es”
 }</t>
   </si>
@@ -591,6 +594,9 @@
 }</t>
   </si>
   <si>
+    <t>Invalid JSON format</t>
+  </si>
+  <si>
     <t>DELETION_valor campo1</t>
   </si>
   <si>
@@ -744,6 +750,9 @@
 }</t>
   </si>
   <si>
+    <t>JSON has not the expected structure</t>
+  </si>
+  <si>
     <t>DELETION_valor etiqueta1</t>
   </si>
   <si>
@@ -1268,9 +1277,6 @@
     <t>PATH</t>
   </si>
   <si>
-    <t>KEY</t>
-  </si>
-  <si>
     <t>1_2_3_5_7_9_10_11_12_15</t>
   </si>
   <si>
@@ -1280,6 +1286,9 @@
     <t>La funcion devuelve True y se envia el fichero</t>
   </si>
   <si>
+    <t>Todo bien</t>
+  </si>
+  <si>
     <t>1_2_3_5_7_9_10_14_15</t>
   </si>
   <si>
@@ -1289,12 +1298,18 @@
     <t>El código de seguimiento no estaba registrado.</t>
   </si>
   <si>
+    <t>Tracking Code not Registered</t>
+  </si>
+  <si>
     <t>1_2_3_5_13_15</t>
   </si>
   <si>
     <t>No se encuentra el fichero JSON</t>
   </si>
   <si>
+    <t>FileNotFound</t>
+  </si>
+  <si>
     <t>1_2_3_5_8_13_15</t>
   </si>
   <si>
@@ -1307,26 +1322,35 @@
     <t>Código SHA-256 incorrecto (formato no corresponde)</t>
   </si>
   <si>
+    <t>Tracking number is invalid</t>
+  </si>
+  <si>
     <t>1_2_4_15</t>
   </si>
   <si>
     <t>Cadena de estrada no procesable (no str..)</t>
   </si>
   <si>
+    <t>Tracking code cannot be procesed</t>
+  </si>
+  <si>
     <t>1_2_3_5_7_9_10_11_13_15</t>
   </si>
   <si>
     <t>Fecha incorrecta</t>
   </si>
   <si>
-    <t>V(G)= E-V</t>
+    <t>Fecha no corresponde a la fecha de entrga</t>
+  </si>
+  <si>
+    <t>V(G)= E-V+2=20-15+2=7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1399,6 +1423,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1438,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1503,6 +1532,12 @@
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1510,6 +1545,18 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1548,7 +1595,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="6">
+  <tableStyles count="16">
     <tableStyle count="3" pivot="0" name="GE3 2023 F1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1568,6 +1615,46 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 4">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 5">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 6">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 7">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 8">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 9">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 10">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 11">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 12">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 13">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="GE3 2023 F2-style 14">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -1621,7 +1708,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1649,7 +1736,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1700,6 +1787,74 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I92:I94" displayName="Table_10" id="10">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I97:I99" displayName="Table_11" id="11">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 10" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I102:I104" displayName="Table_12" id="12">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 11" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I107:I109" displayName="Table_13" id="13">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 12" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I112:I114" displayName="Table_14" id="14">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 13" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I117:I121" displayName="Table_15" id="15">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 14" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F43" displayName="Table_16" id="16">
+  <tableColumns count="6">
+    <tableColumn name="#" id="1"/>
+    <tableColumn name="PATH" id="2"/>
+    <tableColumn name="ID TEST" id="3"/>
+    <tableColumn name="DESCRIPTION" id="4"/>
+    <tableColumn name="EXPECTED RESULT" id="5"/>
+    <tableColumn name="OBSERVATIONS" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F3-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J43" displayName="Table_2" id="2">
   <tableColumns count="10">
@@ -1719,17 +1874,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E51:F53" displayName="Table_3" id="3">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I46:I65" displayName="Table_3" id="3">
+  <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="GE3 2023 F2-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E56:F58" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E51:F53" displayName="Table_4" id="4">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1739,7 +1893,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E61:F121" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E56:F58" displayName="Table_5" id="5">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1749,17 +1903,39 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G43" displayName="Table_6" id="6">
-  <tableColumns count="7">
-    <tableColumn name="#" id="1"/>
-    <tableColumn name="PATH" id="2"/>
-    <tableColumn name="ID TEST" id="3"/>
-    <tableColumn name="DESCRIPTION" id="4"/>
-    <tableColumn name="KEY" id="5"/>
-    <tableColumn name="EXPECTED RESULT" id="6"/>
-    <tableColumn name="OBSERVATIONS" id="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E61:F121" displayName="Table_6" id="6">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="GE3 2023 F3-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="GE3 2023 F2-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I66:I70" displayName="Table_7" id="7">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I75" displayName="Table_8" id="8">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I76:I91" displayName="Table_9" id="9">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2023 F2-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -4429,7 +4605,9 @@
       <c r="H2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="J2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -4440,25 +4618,25 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="26" t="s">
         <v>133</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="J3" s="25"/>
     </row>
@@ -4470,22 +4648,24 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -4496,22 +4676,24 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="26"/>
+        <v>141</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -4522,22 +4704,24 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="26"/>
+        <v>144</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -4548,18 +4732,20 @@
         <v>7.0</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J7" s="25"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -4570,18 +4756,20 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -4592,22 +4780,24 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -4618,22 +4808,24 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="26"/>
+        <v>154</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -4644,22 +4836,24 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -4670,22 +4864,24 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -4696,22 +4892,24 @@
         <v>8.0</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="26"/>
+        <v>163</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -4722,22 +4920,24 @@
         <v>16.0</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="26"/>
+        <v>166</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -4748,22 +4948,24 @@
         <v>16.0</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="26"/>
+        <v>169</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -4774,18 +4976,20 @@
         <v>34.0</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -4796,18 +5000,20 @@
         <v>34.0</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -4818,22 +5024,24 @@
         <v>34.0</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -4844,22 +5052,24 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="26"/>
+        <v>175</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="J19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -4870,22 +5080,24 @@
         <v>17.0</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="26"/>
+        <v>179</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="J20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -4896,18 +5108,20 @@
         <v>35.0</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="J21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -4918,18 +5132,20 @@
         <v>35.0</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -4940,22 +5156,24 @@
         <v>35.0</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="26"/>
+        <v>183</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="J23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -4966,22 +5184,24 @@
         <v>18.0</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="26"/>
+        <v>184</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -4992,22 +5212,24 @@
         <v>18.0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="26"/>
+        <v>185</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -5018,18 +5240,20 @@
         <v>36.0</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -5040,18 +5264,20 @@
         <v>36.0</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -5062,22 +5288,24 @@
         <v>36.0</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="26"/>
+        <v>189</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -5088,22 +5316,24 @@
         <v>9.0</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="26"/>
+        <v>192</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -5114,22 +5344,24 @@
         <v>9.0</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I30" s="26"/>
+        <v>195</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -5140,18 +5372,20 @@
         <v>19.0</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -5162,18 +5396,20 @@
         <v>19.0</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -5184,22 +5420,24 @@
         <v>19.0</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="26"/>
+        <v>199</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="J33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -5210,22 +5448,24 @@
         <v>10.0</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="26"/>
+        <v>202</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="J34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5236,22 +5476,24 @@
         <v>10.0</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I35" s="26"/>
+        <v>205</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="J35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -5262,22 +5504,24 @@
         <v>20.0</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="26"/>
+        <v>206</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="J36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -5288,22 +5532,24 @@
         <v>20.0</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="26"/>
+        <v>207</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="J37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -5314,18 +5560,20 @@
         <v>37.0</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="J38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -5336,18 +5584,20 @@
         <v>37.0</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="I39" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -5358,22 +5608,24 @@
         <v>37.0</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="J40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -5384,22 +5636,24 @@
         <v>21.0</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="26"/>
+        <v>213</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>214</v>
+      </c>
       <c r="J41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -5410,22 +5664,24 @@
         <v>21.0</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I42" s="26"/>
       <c r="J42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -5436,18 +5692,20 @@
         <v>38.0</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="I43" s="27" t="s">
+        <v>214</v>
+      </c>
       <c r="J43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -5458,19 +5716,21 @@
         <v>38.0</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="28"/>
+      <c r="I44" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26">
@@ -5480,23 +5740,25 @@
         <v>38.0</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26">
@@ -5506,23 +5768,25 @@
         <v>22.0</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="28"/>
+        <v>221</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26">
@@ -5532,23 +5796,25 @@
         <v>22.0</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="28"/>
+        <v>222</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26">
@@ -5558,19 +5824,21 @@
         <v>39.0</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26">
@@ -5580,19 +5848,21 @@
         <v>39.0</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="28"/>
+      <c r="I49" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="26">
@@ -5602,23 +5872,25 @@
         <v>39.0</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="28"/>
+        <v>225</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26">
@@ -5628,23 +5900,25 @@
         <v>4.0</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="28"/>
+        <v>228</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="26">
@@ -5654,23 +5928,25 @@
         <v>4.0</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G52" s="24"/>
       <c r="H52" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="28"/>
+        <v>231</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26">
@@ -5680,19 +5956,21 @@
         <v>11.0</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="29"/>
+      <c r="I53" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="31"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="26">
@@ -5702,19 +5980,21 @@
         <v>11.0</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="29"/>
+      <c r="I54" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26">
@@ -5724,23 +6004,25 @@
         <v>11.0</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="31"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="26">
@@ -5750,23 +6032,25 @@
         <v>6.0</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="29"/>
+        <v>237</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" s="31"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26">
@@ -5776,23 +6060,25 @@
         <v>6.0</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="29"/>
+        <v>240</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="26">
@@ -5802,19 +6088,21 @@
         <v>15.0</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="29"/>
+      <c r="I58" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J58" s="31"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26">
@@ -5824,19 +6112,21 @@
         <v>15.0</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="29"/>
+      <c r="I59" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" s="31"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="26">
@@ -5846,23 +6136,25 @@
         <v>15.0</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="29"/>
+        <v>243</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="31"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26">
@@ -5872,23 +6164,25 @@
         <v>5.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="29"/>
+        <v>246</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J61" s="31"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="26">
@@ -5898,23 +6192,25 @@
         <v>5.0</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="29"/>
+        <v>249</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="31"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="26">
@@ -5924,23 +6220,25 @@
         <v>12.0</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I63" s="24"/>
-      <c r="J63" s="29"/>
+      <c r="I63" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J63" s="31"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="26">
@@ -5950,23 +6248,25 @@
         <v>12.0</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G64" s="24"/>
       <c r="H64" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="29"/>
+      <c r="I64" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="31"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="26">
@@ -5976,23 +6276,25 @@
         <v>23.0</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G65" s="24"/>
       <c r="H65" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="29"/>
+        <v>254</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="31"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="26">
@@ -6002,23 +6304,25 @@
         <v>23.0</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G66" s="24"/>
       <c r="H66" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J66" s="31"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="26">
@@ -6028,19 +6332,21 @@
         <v>40.0</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="29"/>
+      <c r="I67" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J67" s="31"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="26">
@@ -6050,19 +6356,21 @@
         <v>40.0</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="29"/>
+      <c r="I68" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J68" s="31"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="26">
@@ -6072,23 +6380,25 @@
         <v>40.0</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="29"/>
+        <v>258</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="31"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="26">
@@ -6098,23 +6408,25 @@
         <v>24.0</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G70" s="24"/>
       <c r="H70" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="29"/>
+        <v>261</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J70" s="31"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="26">
@@ -6124,23 +6436,25 @@
         <v>24.0</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="29"/>
+      <c r="I71" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J71" s="31"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="26">
@@ -6150,19 +6464,21 @@
         <v>41.0</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="24"/>
       <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="29"/>
+      <c r="I72" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J72" s="31"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="26">
@@ -6172,19 +6488,21 @@
         <v>41.0</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="29"/>
+      <c r="I73" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J73" s="31"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="26">
@@ -6194,23 +6512,25 @@
         <v>41.0</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G74" s="24"/>
       <c r="H74" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="29"/>
+        <v>266</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74" s="31"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="26">
@@ -6220,23 +6540,25 @@
         <v>25.0</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G75" s="24"/>
       <c r="H75" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="29"/>
+        <v>267</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="26">
@@ -6246,23 +6568,25 @@
         <v>25.0</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="29"/>
+        <v>268</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J76" s="31"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="26">
@@ -6272,19 +6596,21 @@
         <v>42.0</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="29"/>
+      <c r="I77" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J77" s="31"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="26">
@@ -6294,19 +6620,21 @@
         <v>42.0</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="29"/>
+      <c r="I78" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="31"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="26">
@@ -6316,23 +6644,25 @@
         <v>42.0</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="29"/>
+        <v>271</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J79" s="31"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="26">
@@ -6342,23 +6672,25 @@
         <v>13.0</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G80" s="26"/>
       <c r="H80" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="29"/>
+        <v>272</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J80" s="31"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="26">
@@ -6368,23 +6700,25 @@
         <v>13.0</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G81" s="26"/>
       <c r="H81" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="29"/>
+        <v>273</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" s="31"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="26">
@@ -6394,19 +6728,21 @@
         <v>26.0</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
       <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="29"/>
+      <c r="I82" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J82" s="31"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="26">
@@ -6416,19 +6752,21 @@
         <v>26.0</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
       <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="29"/>
+      <c r="I83" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J83" s="31"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="26">
@@ -6438,23 +6776,25 @@
         <v>26.0</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G84" s="26"/>
       <c r="H84" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="29"/>
+        <v>276</v>
+      </c>
+      <c r="I84" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J84" s="31"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="26">
@@ -6464,23 +6804,25 @@
         <v>14.0</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="29"/>
+        <v>279</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J85" s="31"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="26">
@@ -6490,23 +6832,25 @@
         <v>14.0</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G86" s="24"/>
       <c r="H86" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="29"/>
+        <v>282</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J86" s="31"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="26">
@@ -6515,24 +6859,26 @@
       <c r="B87" s="23">
         <v>27.0</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="C87" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E87" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87" s="31" t="s">
+      <c r="D87" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="33" t="s">
         <v>164</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="29"/>
+        <v>283</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J87" s="31"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="26">
@@ -6541,24 +6887,26 @@
       <c r="B88" s="23">
         <v>27.0</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>281</v>
+      <c r="C88" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="I88" s="24"/>
-      <c r="J88" s="29"/>
+        <v>285</v>
+      </c>
+      <c r="I88" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J88" s="31"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="26">
@@ -6568,19 +6916,21 @@
         <v>43.0</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="29"/>
+      <c r="I89" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" s="31"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="26">
@@ -6590,19 +6940,21 @@
         <v>43.0</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="29"/>
+      <c r="I90" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" s="31"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="26">
@@ -6612,23 +6964,25 @@
         <v>43.0</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G91" s="24"/>
       <c r="H91" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="I91" s="24"/>
-      <c r="J91" s="29"/>
+        <v>288</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J91" s="31"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="26">
@@ -6637,24 +6991,26 @@
       <c r="B92" s="23">
         <v>28.0</v>
       </c>
-      <c r="C92" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="30" t="s">
+      <c r="C92" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E92" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>287</v>
+      <c r="D92" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>290</v>
       </c>
       <c r="G92" s="24"/>
       <c r="H92" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="I92" s="24"/>
-      <c r="J92" s="29"/>
+        <v>291</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" s="31"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="26">
@@ -6663,24 +7019,26 @@
       <c r="B93" s="23">
         <v>28.0</v>
       </c>
-      <c r="C93" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>290</v>
+      <c r="C93" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>293</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I93" s="24"/>
-      <c r="J93" s="29"/>
+        <v>294</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="31"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="26">
@@ -6690,19 +7048,21 @@
         <v>44.0</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="29"/>
+      <c r="I94" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J94" s="31"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="26">
@@ -6712,19 +7072,21 @@
         <v>44.0</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="29"/>
+      <c r="I95" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J95" s="31"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="26">
@@ -6734,23 +7096,25 @@
         <v>44.0</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G96" s="24"/>
       <c r="H96" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="I96" s="24"/>
-      <c r="J96" s="29"/>
+        <v>298</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J96" s="31"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="26">
@@ -6759,24 +7123,26 @@
       <c r="B97" s="23">
         <v>29.0</v>
       </c>
-      <c r="C97" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="30" t="s">
+      <c r="C97" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>297</v>
+      <c r="D97" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>300</v>
       </c>
       <c r="G97" s="24"/>
       <c r="H97" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="I97" s="24"/>
-      <c r="J97" s="29"/>
+        <v>301</v>
+      </c>
+      <c r="I97" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J97" s="31"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="26">
@@ -6785,24 +7151,26 @@
       <c r="B98" s="23">
         <v>29.0</v>
       </c>
-      <c r="C98" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="F98" s="31" t="s">
-        <v>300</v>
+      <c r="C98" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="G98" s="24"/>
       <c r="H98" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="I98" s="24"/>
-      <c r="J98" s="29"/>
+        <v>304</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J98" s="31"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="26">
@@ -6811,20 +7179,22 @@
       <c r="B99" s="23">
         <v>45.0</v>
       </c>
-      <c r="C99" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="F99" s="30"/>
+      <c r="C99" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="F99" s="32"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="29"/>
+      <c r="I99" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J99" s="31"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="26">
@@ -6833,20 +7203,22 @@
       <c r="B100" s="23">
         <v>45.0</v>
       </c>
-      <c r="C100" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F100" s="30"/>
+      <c r="C100" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F100" s="32"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="29"/>
+      <c r="I100" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J100" s="31"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="26">
@@ -6855,24 +7227,26 @@
       <c r="B101" s="23">
         <v>45.0</v>
       </c>
-      <c r="C101" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>149</v>
+      <c r="C101" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="I101" s="24"/>
-      <c r="J101" s="29"/>
+        <v>307</v>
+      </c>
+      <c r="I101" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J101" s="31"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="26">
@@ -6881,24 +7255,26 @@
       <c r="B102" s="23">
         <v>30.0</v>
       </c>
-      <c r="C102" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="30" t="s">
+      <c r="C102" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E102" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>306</v>
+      <c r="D102" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>309</v>
       </c>
       <c r="G102" s="24"/>
       <c r="H102" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="I102" s="24"/>
-      <c r="J102" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="I102" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J102" s="31"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="26">
@@ -6907,24 +7283,26 @@
       <c r="B103" s="23">
         <v>30.0</v>
       </c>
-      <c r="C103" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>309</v>
+      <c r="C103" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>312</v>
       </c>
       <c r="G103" s="24"/>
       <c r="H103" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="I103" s="24"/>
-      <c r="J103" s="29"/>
+        <v>313</v>
+      </c>
+      <c r="I103" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J103" s="31"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="26">
@@ -6933,20 +7311,22 @@
       <c r="B104" s="23">
         <v>46.0</v>
       </c>
-      <c r="C104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="F104" s="30"/>
+      <c r="C104" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="F104" s="32"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="29"/>
+      <c r="I104" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J104" s="31"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="26">
@@ -6955,20 +7335,22 @@
       <c r="B105" s="23">
         <v>46.0</v>
       </c>
-      <c r="C105" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="F105" s="30"/>
+      <c r="C105" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" s="32"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="29"/>
+      <c r="I105" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J105" s="31"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="26">
@@ -6977,24 +7359,26 @@
       <c r="B106" s="23">
         <v>46.0</v>
       </c>
-      <c r="C106" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>149</v>
+      <c r="C106" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G106" s="24"/>
       <c r="H106" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="I106" s="24"/>
-      <c r="J106" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J106" s="31"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="26">
@@ -7003,23 +7387,25 @@
       <c r="B107" s="23">
         <v>31.0</v>
       </c>
-      <c r="C107" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" s="30" t="s">
+      <c r="C107" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E107" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>316</v>
+      <c r="D107" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>319</v>
       </c>
       <c r="G107" s="24"/>
       <c r="H107" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I107" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="26">
@@ -7028,23 +7414,25 @@
       <c r="B108" s="23">
         <v>31.0</v>
       </c>
-      <c r="C108" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>319</v>
+      <c r="C108" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="G108" s="24"/>
       <c r="H108" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="I108" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="I108" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="26">
@@ -7053,19 +7441,21 @@
       <c r="B109" s="23">
         <v>47.0</v>
       </c>
-      <c r="C109" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="F109" s="30"/>
+      <c r="C109" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F109" s="32"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
+      <c r="I109" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="26">
@@ -7074,19 +7464,21 @@
       <c r="B110" s="23">
         <v>47.0</v>
       </c>
-      <c r="C110" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="F110" s="30"/>
+      <c r="C110" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F110" s="32"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
+      <c r="I110" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="26">
@@ -7095,23 +7487,25 @@
       <c r="B111" s="23">
         <v>47.0</v>
       </c>
-      <c r="C111" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>149</v>
+      <c r="C111" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G111" s="24"/>
       <c r="H111" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I111" s="24"/>
+        <v>327</v>
+      </c>
+      <c r="I111" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="26">
@@ -7120,23 +7514,25 @@
       <c r="B112" s="23">
         <v>32.0</v>
       </c>
-      <c r="C112" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" s="30" t="s">
+      <c r="C112" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E112" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>326</v>
+      <c r="D112" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>329</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="I112" s="24"/>
+        <v>330</v>
+      </c>
+      <c r="I112" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="26">
@@ -7145,23 +7541,25 @@
       <c r="B113" s="23">
         <v>32.0</v>
       </c>
-      <c r="C113" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>329</v>
+      <c r="C113" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>332</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="I113" s="24"/>
+        <v>333</v>
+      </c>
+      <c r="I113" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="26">
@@ -7170,19 +7568,21 @@
       <c r="B114" s="23">
         <v>48.0</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F114" s="30"/>
+      <c r="C114" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F114" s="32"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
+      <c r="I114" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="26">
@@ -7191,19 +7591,21 @@
       <c r="B115" s="23">
         <v>48.0</v>
       </c>
-      <c r="C115" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="F115" s="30"/>
+      <c r="C115" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F115" s="32"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
+      <c r="I115" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="26">
@@ -7212,23 +7614,25 @@
       <c r="B116" s="23">
         <v>48.0</v>
       </c>
-      <c r="C116" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>149</v>
+      <c r="C116" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="I116" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="I116" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="26">
@@ -7237,23 +7641,25 @@
       <c r="B117" s="23">
         <v>33.0</v>
       </c>
-      <c r="C117" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="30" t="s">
+      <c r="C117" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E117" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F117" s="31" t="s">
+      <c r="D117" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="33" t="s">
         <v>164</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="G117" s="24"/>
       <c r="H117" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="I117" s="24"/>
+        <v>337</v>
+      </c>
+      <c r="I117" s="36" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="26">
@@ -7262,23 +7668,25 @@
       <c r="B118" s="23">
         <v>33.0</v>
       </c>
-      <c r="C118" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E118" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F118" s="31" t="s">
-        <v>281</v>
+      <c r="C118" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="G118" s="24"/>
       <c r="H118" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="I118" s="24"/>
+        <v>338</v>
+      </c>
+      <c r="I118" s="37" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="26">
@@ -7287,19 +7695,21 @@
       <c r="B119" s="23">
         <v>49.0</v>
       </c>
-      <c r="C119" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="F119" s="30"/>
+      <c r="C119" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="32"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
+      <c r="I119" s="37" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="26">
@@ -7308,19 +7718,21 @@
       <c r="B120" s="23">
         <v>49.0</v>
       </c>
-      <c r="C120" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="F120" s="30"/>
+      <c r="C120" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="F120" s="32"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
+      <c r="I120" s="37" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="26">
@@ -7329,23 +7741,25 @@
       <c r="B121" s="23">
         <v>49.0</v>
       </c>
-      <c r="C121" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>149</v>
+      <c r="C121" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G121" s="24"/>
       <c r="H121" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="I121" s="24"/>
+        <v>341</v>
+      </c>
+      <c r="I121" s="36" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1"/>
     <row r="123" ht="15.75" customHeight="1"/>
@@ -8231,11 +8645,21 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+  <tableParts count="14">
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8254,9 +8678,8 @@
     <col customWidth="1" min="2" max="2" width="21.0"/>
     <col customWidth="1" min="3" max="3" width="22.3"/>
     <col customWidth="1" min="4" max="4" width="62.3"/>
-    <col customWidth="1" min="5" max="5" width="9.3"/>
-    <col customWidth="1" min="6" max="7" width="33.7"/>
-    <col customWidth="1" min="8" max="25" width="10.6"/>
+    <col customWidth="1" min="5" max="6" width="33.7"/>
+    <col customWidth="1" min="7" max="24" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -8264,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -8273,12 +8696,9 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8287,108 +8707,115 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>6.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>7.0</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>355</v>
+      <c r="B8" s="38" t="s">
+        <v>362</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
@@ -8397,7 +8824,6 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
@@ -8406,19 +8832,17 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="R11" s="33"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
@@ -8427,7 +8851,6 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
@@ -8436,7 +8859,6 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
@@ -8445,7 +8867,6 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
@@ -8454,7 +8875,6 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
@@ -8463,7 +8883,6 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
@@ -8472,7 +8891,6 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
@@ -8481,7 +8899,6 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
@@ -8490,7 +8907,6 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
@@ -8499,7 +8915,6 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
@@ -8508,7 +8923,6 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
@@ -8517,7 +8931,6 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
@@ -8526,7 +8939,6 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
@@ -8535,7 +8947,6 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
@@ -8544,7 +8955,6 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
@@ -8553,7 +8963,6 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
@@ -8562,7 +8971,6 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
@@ -8571,7 +8979,6 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
@@ -8580,7 +8987,6 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
@@ -8589,7 +8995,6 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
@@ -8598,7 +9003,6 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
@@ -8607,7 +9011,6 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
@@ -8616,7 +9019,6 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
@@ -8625,7 +9027,6 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
@@ -8634,7 +9035,6 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
@@ -8643,7 +9043,6 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
@@ -8652,7 +9051,6 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
@@ -8661,7 +9059,6 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
@@ -8670,7 +9067,6 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
@@ -8679,7 +9075,6 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
@@ -8688,7 +9083,6 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
@@ -8697,7 +9091,6 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
@@ -8706,7 +9099,6 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
